--- a/01_Credit_Card/Lab_01_AutoML/output/model_catalogue.xlsx
+++ b/01_Credit_Card/Lab_01_AutoML/output/model_catalogue.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="249">
   <si>
     <t>Iteration</t>
   </si>
@@ -38,7 +38,7 @@
     <t>operator</t>
   </si>
   <si>
-    <t>BernoulliNB(ZeroCount(input_matrix), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
+    <t>GaussianNB(input_matrix)</t>
   </si>
   <si>
     <t>0</t>
@@ -47,694 +47,718 @@
     <t>('ROOT',)</t>
   </si>
   <si>
-    <t>BernoulliNB(MinMaxScaler(input_matrix), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.65), KNeighborsClassifier__n_neighbors=69, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(ZeroCount(input_matrix), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=15)</t>
-  </si>
-  <si>
-    <t>GaussianNB(Binarizer(input_matrix, Binarizer__threshold=0.45))</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>GaussianNB(Binarizer(input_matrix, Binarizer__threshold=0.8500000000000001))</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.1), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=17, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=20)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), KNeighborsClassifier__n_neighbors=48, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=40, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=12)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=complete), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.001), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=12), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.7000000000000001), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=52, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>GaussianNB(CombineDFs(input_matrix, input_matrix))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=78, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.65), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=16, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.01), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(GaussianNB(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=17)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True))</t>
+  </si>
+  <si>
+    <t>MultinomialNB(MaxAbsScaler(input_matrix), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectPercentile(input_matrix, SelectPercentile__percentile=72), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=13, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=17)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=55, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=59, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(SelectPercentile(input_matrix, SelectPercentile__percentile=55), KNeighborsClassifier__n_neighbors=61, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=12)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=100, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>GaussianNB(ZeroCount(input_matrix))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=72, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=66, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=4, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=2)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=93, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(MinMaxScaler(input_matrix), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=12)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.1), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectFwe(input_matrix, SelectFwe__alpha=0.023), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=11)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=8)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.25), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=69, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(MaxAbsScaler(input_matrix), KNeighborsClassifier__n_neighbors=66, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=1, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=27, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(MinMaxScaler(input_matrix), LogisticRegression__C=1.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=10, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectFwe(input_matrix, SelectFwe__alpha=0.046), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=58, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(MaxAbsScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=4)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>GaussianNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.01))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=96, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(Normalizer(input_matrix, Normalizer__norm=max), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
   </si>
   <si>
     <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)</t>
   </si>
   <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=20), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RobustScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+    <t>LogisticRegression(CombineDFs(input_matrix, input_matrix), LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=1, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=59, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=59, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=55, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('GaussianNB(input_matrix)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=6)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(MaxAbsScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=6)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(MaxAbsScaler(input_matrix), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True), KNeighborsClassifier__n_neighbors=93, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=93, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=11)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=6)', 'DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=11)')</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=16)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MinMaxScaler(input_matrix))</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(MinMaxScaler(input_matrix), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=complete), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=7, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=58, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(MaxAbsScaler(input_matrix), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=cosine, FeatureAgglomeration__linkage=complete), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=31, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=12)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=12)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)', 'GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True))')</t>
+  </si>
+  <si>
+    <t>BernoulliNB(VarianceThreshold(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.001), VarianceThreshold__threshold=0.001), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.001), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=13)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l2), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=15)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.1), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(MinMaxScaler(input_matrix), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)', 'BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.1), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)')</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(Normalizer(input_matrix, Normalizer__norm=l2), KNeighborsClassifier__n_neighbors=93, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=8, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=14), RBFSampler__gamma=0.1), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.1), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectFwe(input_matrix, SelectFwe__alpha=0.046), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(SelectFwe(input_matrix, SelectFwe__alpha=0.046), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(RobustScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=7)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(SelectPercentile(input_matrix, SelectPercentile__percentile=20), RBFSampler__gamma=0.65), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.65), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)',)</t>
   </si>
   <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(CombineDFs(input_matrix, input_matrix), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>GaussianNB(input_matrix)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>GaussianNB(MaxAbsScaler(input_matrix))</t>
-  </si>
-  <si>
-    <t>GaussianNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=15, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance))</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(GaussianNB(input_matrix), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.65))</t>
-  </si>
-  <si>
-    <t>LogisticRegression(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), LogisticRegression__C=0.0001, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=14, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.0))</t>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)', 'BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)')</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(SelectPercentile(LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), SelectPercentile__percentile=37), KNeighborsClassifier__n_neighbors=48, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), KNeighborsClassifier__n_neighbors=48, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=16, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=59, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)', 'KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=8, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=16, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)')</t>
+  </si>
+  <si>
+    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True))', 'MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)')</t>
+  </si>
+  <si>
+    <t>MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), LogisticRegression__C=0.1, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(PCA(input_matrix, PCA__iterated_power=9, PCA__svd_solver=randomized), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=16)</t>
   </si>
   <si>
     <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
   </si>
   <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=97, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>GaussianNB(CombineDFs(input_matrix, input_matrix))</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=48, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(ZeroCount(input_matrix), KNeighborsClassifier__n_neighbors=94, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(ZeroCount(input_matrix), KNeighborsClassifier__n_neighbors=64, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(LogisticRegression(input_matrix, LogisticRegression__C=0.5, LogisticRegression__dual=False, LogisticRegression__penalty=l2), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.35000000000000003))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RobustScaler(input_matrix), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(SelectFwe(input_matrix, SelectFwe__alpha=0.018000000000000002), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(MaxAbsScaler(input_matrix), KNeighborsClassifier__n_neighbors=86, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.8500000000000001), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(StandardScaler(input_matrix), KNeighborsClassifier__n_neighbors=6, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=4)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=13)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.01), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=20)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l2), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=11)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Normalizer(input_matrix, Normalizer__norm=max), KNeighborsClassifier__n_neighbors=11, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(CombineDFs(input_matrix, input_matrix), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(ZeroCount(input_matrix), LogisticRegression__C=5.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=8)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=16, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=10, DecisionTreeClassifier__min_samples_split=3), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=17, DecisionTreeClassifier__min_samples_split=16)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False), KNeighborsClassifier__n_neighbors=72, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=72, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=72, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=38, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(SelectFwe(input_matrix, SelectFwe__alpha=0.002), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=12)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=12)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=55, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=55, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=6), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=22, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=69, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=69, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=20.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=40, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(DecisionTreeClassifier(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=2), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=16), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)',)</t>
   </si>
   <si>
     <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>MultinomialNB(Binarizer(input_matrix, Binarizer__threshold=0.9500000000000001), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.5), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=9)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=12)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=19)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.1), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=19)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.30000000000000004), KNeighborsClassifier__n_neighbors=25, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=3)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=4, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(MinMaxScaler(input_matrix), KNeighborsClassifier__n_neighbors=7, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=2)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(MinMaxScaler(input_matrix), MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>GaussianNB(PCA(input_matrix, PCA__iterated_power=7, PCA__svd_solver=randomized))</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=15, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=15, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance))',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(Binarizer(RobustScaler(input_matrix), Binarizer__threshold=0.30000000000000004), KNeighborsClassifier__n_neighbors=25, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.30000000000000004), KNeighborsClassifier__n_neighbors=25, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(KNeighborsClassifier(MinMaxScaler(input_matrix), KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(input_matrix)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=64, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(ZeroCount(input_matrix), KNeighborsClassifier__n_neighbors=64, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(SelectFwe(input_matrix, SelectFwe__alpha=0.01), KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=23, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(CombineDFs(input_matrix, input_matrix), KNeighborsClassifier__n_neighbors=16, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=16, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=12), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=41, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(SelectFwe(input_matrix, SelectFwe__alpha=0.018000000000000002), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=6)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True))</t>
-  </si>
-  <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=0.001, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)', 'MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)')</t>
+  </si>
+  <si>
+    <t>BernoulliNB(MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)', 'MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)')</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=19), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=10)', 'DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=2, DecisionTreeClassifier__min_samples_split=7)')</t>
+  </si>
+  <si>
+    <t>GaussianNB(MultinomialNB(MinMaxScaler(input_matrix), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True))',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(VarianceThreshold(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.2), VarianceThreshold__threshold=0.001), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=8, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=19), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=10)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=1.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
   </si>
   <si>
     <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)',)</t>
   </si>
   <si>
-    <t>MultinomialNB(MaxAbsScaler(input_matrix), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=16)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.4), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(CombineDFs(input_matrix, input_matrix), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(VarianceThreshold(CombineDFs(input_matrix, input_matrix), VarianceThreshold__threshold=0.05), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=4, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=4, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=15)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=11)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l2), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=11)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(ZeroCount(ZeroCount(input_matrix)), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(ZeroCount(input_matrix), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=5, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=26, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=95, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(Binarizer(input_matrix, Binarizer__threshold=0.9500000000000001), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=False)', 'MultinomialNB(Binarizer(input_matrix, Binarizer__threshold=0.9500000000000001), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)')</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(PCA(SelectPercentile(input_matrix, SelectPercentile__percentile=86), PCA__iterated_power=3, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=4)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=4)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RobustScaler(ZeroCount(input_matrix)), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(RobustScaler(input_matrix), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(StandardScaler(input_matrix), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=l2, FeatureAgglomeration__linkage=average), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=16)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=16, DecisionTreeClassifier__min_samples_split=6)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(Normalizer(input_matrix, Normalizer__norm=l2), PCA__iterated_power=3, PCA__svd_solver=randomized), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)',)</t>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=20, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=4, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=100, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=0.001, MultinomialNB__fit_prior=False)',)</t>
   </si>
   <si>
     <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
   </si>
   <si>
-    <t>GaussianNB(MaxAbsScaler(RBFSampler(input_matrix, RBFSampler__gamma=0.65)))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(MaxAbsScaler(input_matrix))', 'GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.65))')</t>
-  </si>
-  <si>
-    <t>MultinomialNB(input_matrix, MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>LogisticRegression(input_matrix, LogisticRegression__C=5.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
-  </si>
-  <si>
-    <t>('LogisticRegression(ZeroCount(input_matrix), LogisticRegression__C=5.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=97, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)', 'KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=97, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)')</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=15)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=15)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=5))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(PCA(input_matrix, PCA__iterated_power=7, PCA__svd_solver=randomized))',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(MaxAbsScaler(input_matrix), KNeighborsClassifier__n_neighbors=86, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(MaxAbsScaler(input_matrix), KNeighborsClassifier__n_neighbors=86, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=70, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=25, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>GaussianNB(CombineDFs(input_matrix, Binarizer(input_matrix, Binarizer__threshold=0.45)))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(CombineDFs(input_matrix, input_matrix))', 'GaussianNB(Binarizer(input_matrix, Binarizer__threshold=0.45))')</t>
-  </si>
-  <si>
-    <t>BernoulliNB(GaussianNB(input_matrix), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=14)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=7)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=2)</t>
-  </si>
-  <si>
-    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=48, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(CombineDFs(input_matrix, Binarizer(input_matrix, Binarizer__threshold=0.30000000000000004)), KNeighborsClassifier__n_neighbors=25, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(RBFSampler(input_matrix, RBFSampler__gamma=0.9), RBFSampler__gamma=0.0))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.0))',)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(SelectFwe(input_matrix, SelectFwe__alpha=0.046), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=14)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=14)', 'DecisionTreeClassifier(Normalizer(input_matrix, Normalizer__norm=l2), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=11)')</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=20)', 'DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.01), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=7)')</t>
-  </si>
-  <si>
-    <t>MultinomialNB(ZeroCount(GaussianNB(input_matrix)), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(ZeroCount(input_matrix), MultinomialNB__alpha=0.01, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=10)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=10)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=27, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(Binarizer(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=average), Binarizer__threshold=0.9500000000000001), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(Binarizer(input_matrix, Binarizer__threshold=0.9500000000000001), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(RBFSampler(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), RBFSampler__gamma=0.55), KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(RBFSampler(GaussianNB(input_matrix), RBFSampler__gamma=0.5), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=9)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(RBFSampler(input_matrix, RBFSampler__gamma=0.5), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=15, DecisionTreeClassifier__min_samples_split=9)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=18)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=2)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=3, DecisionTreeClassifier__min_samples_leaf=6, DecisionTreeClassifier__min_samples_split=20)</t>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=10, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=78, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True))</t>
+  </si>
+  <si>
+    <t>('GaussianNB(MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True))', 'GaussianNB(CombineDFs(input_matrix, input_matrix))')</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=12)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=12)', 'DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=13)')</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=2)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=9, DecisionTreeClassifier__min_samples_split=2)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=16)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(RBFSampler(input_matrix, RBFSampler__gamma=0.65), BernoulliNB__alpha=10.0, BernoulliNB__fit_prior=False)</t>
   </si>
   <si>
     <t>GaussianNB(PCA(input_matrix, PCA__iterated_power=2, PCA__svd_solver=randomized))</t>
   </si>
   <si>
-    <t>('GaussianNB(RobustScaler(input_matrix))',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=47, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=False)', 'BernoulliNB(PCA(input_matrix, PCA__iterated_power=3, PCA__svd_solver=randomized), BernoulliNB__alpha=1.0, BernoulliNB__fit_prior=True)')</t>
-  </si>
-  <si>
-    <t>MultinomialNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(input_matrix, MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=True)', 'MultinomialNB(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=32, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)')</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=2)</t>
-  </si>
-  <si>
-    <t>BernoulliNB(RobustScaler(input_matrix), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(RobustScaler(input_matrix), BernoulliNB__alpha=0.1, BernoulliNB__fit_prior=False)', 'BernoulliNB(input_matrix, BernoulliNB__alpha=100.0, BernoulliNB__fit_prior=True)')</t>
-  </si>
-  <si>
-    <t>BernoulliNB(DecisionTreeClassifier(MinMaxScaler(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=20), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('BernoulliNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=20), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=71, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=7, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
-  </si>
-  <si>
-    <t>MultinomialNB(DecisionTreeClassifier(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=10, DecisionTreeClassifier__min_samples_split=3), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=7), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=6, DecisionTreeClassifier__min_samples_leaf=10, DecisionTreeClassifier__min_samples_split=3), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=True)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(CombineDFs(input_matrix, input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=11)</t>
-  </si>
-  <si>
-    <t>('MultinomialNB(CombineDFs(input_matrix, input_matrix), MultinomialNB__alpha=10.0, MultinomialNB__fit_prior=False)',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.05), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=11)', 'DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=7)')</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=1, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=13)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=19, DecisionTreeClassifier__min_samples_split=13)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.9500000000000001))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(RBFSampler(input_matrix, RBFSampler__gamma=0.65))',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(BernoulliNB(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.01), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=False), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>('DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.01), DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=7)',)</t>
-  </si>
-  <si>
-    <t>GaussianNB(CombineDFs(ZeroCount(input_matrix), input_matrix))</t>
-  </si>
-  <si>
-    <t>('GaussianNB(CombineDFs(input_matrix, input_matrix))',)</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>GaussianNB(MaxAbsScaler(RobustScaler(input_matrix)))</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(VarianceThreshold(input_matrix, VarianceThreshold__threshold=0.01), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=9, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=14)</t>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=20)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=1, DecisionTreeClassifier__min_samples_split=13)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=11)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=8)',)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(SelectFwe(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=12), SelectFwe__alpha=0.004), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('MultinomialNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=12), MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(StandardScaler(input_matrix), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(MultinomialNB(input_matrix, MultinomialNB__alpha=1.0, MultinomialNB__fit_prior=False), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=11)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=5, DecisionTreeClassifier__min_samples_split=11)', 'DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=7, DecisionTreeClassifier__min_samples_split=12)')</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=17)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(GaussianNB(input_matrix), DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=10, DecisionTreeClassifier__min_samples_leaf=20, DecisionTreeClassifier__min_samples_split=17)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(input_matrix, LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>('LogisticRegression(CombineDFs(input_matrix, input_matrix), LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)',)</t>
+  </si>
+  <si>
+    <t>LogisticRegression(CombineDFs(input_matrix, StandardScaler(input_matrix)), LogisticRegression__C=15.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(Binarizer(input_matrix, Binarizer__threshold=0.05), KNeighborsClassifier__n_neighbors=69, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>MultinomialNB(FeatureAgglomeration(input_matrix, FeatureAgglomeration__affinity=manhattan, FeatureAgglomeration__linkage=complete), MultinomialNB__alpha=100.0, MultinomialNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>GaussianNB(GaussianNB(input_matrix))</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=59, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=67, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=66, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=24, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=7, DecisionTreeClassifier__min_samples_leaf=12, DecisionTreeClassifier__min_samples_split=8)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=66, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(MaxAbsScaler(input_matrix), KNeighborsClassifier__n_neighbors=66, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.2), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(Binarizer(input_matrix, Binarizer__threshold=0.7000000000000001), BernoulliNB__alpha=0.001, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>GaussianNB(SelectPercentile(input_matrix, SelectPercentile__percentile=89))</t>
+  </si>
+  <si>
+    <t>BernoulliNB(PCA(input_matrix, PCA__iterated_power=1, PCA__svd_solver=randomized), BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), KNeighborsClassifier__n_neighbors=48, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(LogisticRegression(input_matrix, LogisticRegression__C=10.0, LogisticRegression__dual=False, LogisticRegression__penalty=l2), KNeighborsClassifier__n_neighbors=48, KNeighborsClassifier__p=2, KNeighborsClassifier__weights=distance)', 'KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=69, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)')</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=85, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)</t>
+  </si>
+  <si>
+    <t>GaussianNB(DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=4, DecisionTreeClassifier__min_samples_leaf=4, DecisionTreeClassifier__min_samples_split=17))</t>
+  </si>
+  <si>
+    <t>MultinomialNB(MaxAbsScaler(KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=49, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)), MultinomialNB__alpha=0.1, MultinomialNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=False)</t>
+  </si>
+  <si>
+    <t>('BernoulliNB(input_matrix, BernoulliNB__alpha=0.01, BernoulliNB__fit_prior=True)',)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=96, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=uniform)</t>
+  </si>
+  <si>
+    <t>('KNeighborsClassifier(input_matrix, KNeighborsClassifier__n_neighbors=96, KNeighborsClassifier__p=1, KNeighborsClassifier__weights=distance)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=13, DecisionTreeClassifier__min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>('DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=gini, DecisionTreeClassifier__max_depth=2, DecisionTreeClassifier__min_samples_leaf=11, DecisionTreeClassifier__min_samples_split=10)',)</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(input_matrix, DecisionTreeClassifier__criterion=entropy, DecisionTreeClassifier__max_depth=5, DecisionTreeClassifier__min_samples_leaf=3, DecisionTreeClassifier__min_samples_split=12)</t>
   </si>
 </sst>
 </file>
@@ -779,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -826,7 +850,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7462981963927855</v>
+        <v>0.8043142284569138</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -844,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -852,7 +876,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.6470581162324649</v>
+        <v>0.7406957915831663</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -870,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +902,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.854339879759519</v>
+        <v>0.7306949899799599</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
@@ -896,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +928,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.7142741482965932</v>
+        <v>0.716693386773547</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
@@ -930,7 +954,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.8235310621242485</v>
+        <v>0.7434949899799599</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
@@ -956,7 +980,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.8427366733466932</v>
+        <v>0.6358557114228457</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -982,7 +1006,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.7462973947895792</v>
+        <v>0.8327286573146292</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
@@ -1000,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1008,7 +1032,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.8347350701402805</v>
+        <v>0.6730709418837676</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>17</v>
@@ -1034,7 +1058,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.8499430861723447</v>
+        <v>0.8399430861723447</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>18</v>
@@ -1060,7 +1084,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.7791118236472946</v>
+        <v>0.8391374749498997</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>19</v>
@@ -1078,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1086,7 +1110,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.8219350701402807</v>
+        <v>0.8087198396793587</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>20</v>
@@ -1104,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -1112,7 +1136,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.673862124248497</v>
+        <v>0.8183246492985973</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>21</v>
@@ -1138,7 +1162,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8243302605210422</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
@@ -1164,7 +1188,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.6466581162324649</v>
+        <v>0.756303006012024</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>23</v>
@@ -1182,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -1190,7 +1214,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.843943887775551</v>
+        <v>0.8075158316633267</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>24</v>
@@ -1208,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -1216,7 +1240,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.8519350701402806</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>25</v>
@@ -1242,7 +1266,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.7334925851703407</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>26</v>
@@ -1268,7 +1292,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.8179294589178356</v>
+        <v>0.7074797595190381</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>27</v>
@@ -1294,7 +1318,7 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.6498581162324649</v>
+        <v>0.8171246492985972</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>28</v>
@@ -1320,7 +1344,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.850743887775551</v>
+        <v>0.6358557114228457</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>29</v>
@@ -1346,7 +1370,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.6470581162324649</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>30</v>
@@ -1364,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -1372,7 +1396,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.7458973947895793</v>
+        <v>0.7867110220440882</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>31</v>
@@ -1390,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -1398,7 +1422,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.759498997995992</v>
+        <v>0.7498965931863728</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>32</v>
@@ -1416,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1424,7 +1448,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.6466581162324649</v>
+        <v>0.6358557114228457</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>33</v>
@@ -1450,7 +1474,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.8179294589178356</v>
+        <v>0.8199246492985971</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>34</v>
@@ -1476,7 +1500,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.7462973947895792</v>
+        <v>0.7714997995991986</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>35</v>
@@ -1494,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1526,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.8179294589178356</v>
+        <v>0.7723086172344689</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>36</v>
@@ -1520,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1528,7 +1552,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.8507382765531062</v>
+        <v>0.8211270541082165</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>37</v>
@@ -1546,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1554,7 +1578,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.7871134268537074</v>
+        <v>0.678671743486974</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>38</v>
@@ -1572,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1580,7 +1604,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.7855150300601202</v>
+        <v>0.6990805611222445</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>39</v>
@@ -1606,7 +1630,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.7446941883767535</v>
+        <v>0.818720641282565</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>40</v>
@@ -1632,7 +1656,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.811116633266533</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>41</v>
@@ -1658,7 +1682,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.8443310621242486</v>
+        <v>0.8267222444889779</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>42</v>
@@ -1676,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1684,7 +1708,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.8231334669338677</v>
+        <v>0.6246501002004008</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>43</v>
@@ -1702,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1734,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.2601042084168337</v>
+        <v>0.747098997995992</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>44</v>
@@ -1736,7 +1760,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.6766629258517034</v>
+        <v>0.678671743486974</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>45</v>
@@ -1754,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -1762,7 +1786,7 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.8215342685370741</v>
+        <v>0.6726709418837675</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>46</v>
@@ -1780,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -1788,7 +1812,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.7955206412825652</v>
+        <v>0.818318236472946</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>47</v>
@@ -1806,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1838,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.8251334669338677</v>
+        <v>0.7815142284569139</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>48</v>
@@ -1840,7 +1864,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.8207358717434869</v>
+        <v>0.678671743486974</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>49</v>
@@ -1858,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -1866,7 +1890,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.8511302605210421</v>
+        <v>0.8195254509018035</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>50</v>
@@ -1892,7 +1916,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.828735871743487</v>
+        <v>0.7074797595190381</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>51</v>
@@ -1910,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,7 +1942,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.809127855711423</v>
+        <v>0.7434949899799599</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>52</v>
@@ -1936,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -1944,7 +1968,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.7454941883767535</v>
+        <v>0.8247278557114228</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>53</v>
@@ -1962,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -1970,7 +1994,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.8503422845691382</v>
+        <v>0.8031142284569139</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>54</v>
@@ -1988,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -1996,7 +2020,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.6614693386773547</v>
+        <v>0.839935871743487</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>55</v>
@@ -2014,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -2022,7 +2046,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.7406957915831665</v>
+        <v>0.8347334669338677</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>56</v>
@@ -2040,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -2048,7 +2072,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.8279350701402806</v>
+        <v>0.7434949899799599</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>57</v>
@@ -2074,7 +2098,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.7919246492985972</v>
+        <v>0.6794717434869739</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>58</v>
@@ -2100,7 +2124,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.8319318637274549</v>
+        <v>0.8159278557114227</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>59</v>
@@ -2118,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -2126,7 +2150,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.8243254509018035</v>
+        <v>0.7462965931863728</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>60</v>
@@ -2144,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -2152,7 +2176,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.8423398797595191</v>
+        <v>0.678671743486974</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>61</v>
@@ -2178,7 +2202,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.8375374749498997</v>
+        <v>0.7963142284569138</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>62</v>
@@ -2196,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -2204,7 +2228,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.843943887775551</v>
+        <v>0.8159246492985972</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>63</v>
@@ -2230,7 +2254,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8139254509018036</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>64</v>
@@ -2256,7 +2280,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.8519406813627255</v>
+        <v>0.810324649298597</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>65</v>
@@ -2274,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -2282,7 +2306,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.8419374749498998</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>66</v>
@@ -2308,7 +2332,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.8347350701402805</v>
+        <v>0.8171286573146294</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>67</v>
@@ -2334,7 +2358,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.7438941883767536</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>68</v>
@@ -2360,7 +2384,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.8515486973947896</v>
+        <v>0.7438941883767536</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>69</v>
@@ -2378,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -2386,7 +2410,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.8299286573146292</v>
+        <v>0.8283294589178356</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>70</v>
@@ -2404,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -2412,7 +2436,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.6470581162324649</v>
+        <v>0.6898845691382767</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>71</v>
@@ -2430,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -2438,7 +2462,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.8115246492985971</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>72</v>
@@ -2464,7 +2488,7 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.850727855711423</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>73</v>
@@ -2490,7 +2514,7 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.8267278557114228</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>74</v>
@@ -2516,7 +2540,7 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.8383326653306613</v>
+        <v>0.811116633266533</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>75</v>
@@ -2542,7 +2566,7 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.8455382765531061</v>
+        <v>0.8399366733466934</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>76</v>
@@ -2560,7 +2584,7 @@
         <v>10</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -2568,7 +2592,7 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8043206412825651</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>77</v>
@@ -2586,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -2594,7 +2618,7 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.7414965931863728</v>
+        <v>0.8175262525050101</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>78</v>
@@ -2612,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -2620,7 +2644,7 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.8195294589178357</v>
+        <v>0.8207254509018036</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>79</v>
@@ -2646,7 +2670,7 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.8411422845691382</v>
+        <v>0.8151222444889781</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>80</v>
@@ -2664,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -2672,7 +2696,7 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.6470581162324649</v>
+        <v>0.7919134268537075</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>81</v>
@@ -2690,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -2698,7 +2722,7 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.8547422845691383</v>
+        <v>0.8091158316633267</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>82</v>
@@ -2724,7 +2748,7 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.7366957915831663</v>
+        <v>0.8255310621242484</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>83</v>
@@ -2742,7 +2766,7 @@
         <v>10</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -2750,7 +2774,7 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.6466581162324649</v>
+        <v>0.6774717434869739</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>84</v>
@@ -2768,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -2776,7 +2800,7 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.7659118236472946</v>
+        <v>0.8203270541082164</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>85</v>
@@ -2794,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -2802,7 +2826,7 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.8455366733466935</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>86</v>
@@ -2820,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -2828,7 +2852,7 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8403390781563127</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>87</v>
@@ -2846,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -2854,7 +2878,7 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.8319350701402806</v>
+        <v>0.8043142284569138</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>88</v>
@@ -2872,7 +2896,7 @@
         <v>10</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
@@ -2880,7 +2904,7 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.8411366733466934</v>
+        <v>0.8163278557114229</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>89</v>
@@ -2898,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -2906,7 +2930,7 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.6766629258517034</v>
+        <v>0.6834741482965933</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>90</v>
@@ -2924,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -2932,7 +2956,7 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.8451430861723447</v>
+        <v>0.6694669338677355</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>91</v>
@@ -2958,7 +2982,7 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.6770629258517035</v>
+        <v>0.7903110220440882</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>92</v>
@@ -2976,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -2984,22 +3008,22 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.8087238476953909</v>
+        <v>0.8147254509018035</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>93</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>2.0</v>
@@ -3010,22 +3034,22 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.8267358717434868</v>
+        <v>0.8179246492985971</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1.0</v>
@@ -3036,13 +3060,13 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.845143887775551</v>
+        <v>0.7498965931863728</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1.0</v>
@@ -3051,7 +3075,7 @@
         <v>0.0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1.0</v>
@@ -3062,13 +3086,13 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.8403366733466934</v>
+        <v>0.8091158316633267</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>1.0</v>
@@ -3077,10 +3101,10 @@
         <v>0.0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
@@ -3088,13 +3112,13 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.783916633266533</v>
+        <v>0.8447398797595189</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1.0</v>
@@ -3103,10 +3127,10 @@
         <v>0.0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
@@ -3114,13 +3138,13 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.8347350701402805</v>
+        <v>0.81872625250501</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1.0</v>
@@ -3129,10 +3153,10 @@
         <v>0.0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="91">
@@ -3140,25 +3164,25 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.8347350701402805</v>
+        <v>0.7498965931863728</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -3166,13 +3190,13 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.7498965931863728</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1.0</v>
@@ -3181,10 +3205,10 @@
         <v>0.0</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
@@ -3192,13 +3216,13 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.8387374749498997</v>
+        <v>0.8043142284569138</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1.0</v>
@@ -3207,7 +3231,7 @@
         <v>0.0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>2.0</v>
@@ -3218,13 +3242,13 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.8311374749498996</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1.0</v>
@@ -3233,7 +3257,7 @@
         <v>0.0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>1.0</v>
@@ -3244,13 +3268,13 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.8203238476953908</v>
+        <v>0.8203246492985972</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1.0</v>
@@ -3259,10 +3283,10 @@
         <v>0.0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="96">
@@ -3270,13 +3294,13 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.8383326653306613</v>
+        <v>0.6770709418837675</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1.0</v>
@@ -3285,10 +3309,10 @@
         <v>0.0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="97">
@@ -3296,13 +3320,13 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.7406957915831665</v>
+        <v>0.6250501002004007</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1.0</v>
@@ -3311,7 +3335,7 @@
         <v>0.0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>2.0</v>
@@ -3322,13 +3346,13 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.835534268537074</v>
+        <v>0.8247270541082165</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1.0</v>
@@ -3337,10 +3361,10 @@
         <v>0.0</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -3348,13 +3372,13 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.8139078156312625</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1.0</v>
@@ -3363,10 +3387,10 @@
         <v>0.0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
@@ -3374,25 +3398,25 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.757098997995992</v>
+        <v>0.6770709418837675</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
@@ -3400,13 +3424,13 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.7074797595190381</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1.0</v>
@@ -3415,10 +3439,10 @@
         <v>0.0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="102">
@@ -3426,13 +3450,13 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8351334669338677</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1.0</v>
@@ -3441,10 +3465,10 @@
         <v>0.0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
@@ -3452,13 +3476,13 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.8411358717434869</v>
+        <v>0.8155294589178357</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1.0</v>
@@ -3467,10 +3491,10 @@
         <v>0.0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="104">
@@ -3478,25 +3502,25 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.722298997995992</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
@@ -3504,13 +3528,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.7154837675350701</v>
+        <v>0.81312625250501</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1.0</v>
@@ -3519,7 +3543,7 @@
         <v>0.0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>2.0</v>
@@ -3530,13 +3554,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.6466581162324649</v>
+        <v>0.8339254509018035</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>131</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1.0</v>
@@ -3545,10 +3569,10 @@
         <v>0.0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="107">
@@ -3556,13 +3580,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.8303318637274548</v>
+        <v>0.8163286573146292</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1.0</v>
@@ -3571,7 +3595,7 @@
         <v>0.0</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>1.0</v>
@@ -3582,13 +3606,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.8195254509018035</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1.0</v>
@@ -3597,10 +3621,10 @@
         <v>0.0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
@@ -3608,13 +3632,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8391358717434869</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1.0</v>
@@ -3623,10 +3647,10 @@
         <v>0.0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="110">
@@ -3634,13 +3658,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0.7406957915831665</v>
+        <v>0.8255286573146291</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>1.0</v>
@@ -3649,10 +3673,10 @@
         <v>0.0</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111">
@@ -3660,13 +3684,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.6558861723446894</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>1.0</v>
@@ -3675,10 +3699,10 @@
         <v>0.0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
@@ -3686,22 +3710,22 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.8399366733466934</v>
+        <v>0.7434949899799599</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>1.0</v>
@@ -3712,13 +3736,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0.8367366733466934</v>
+        <v>0.7639022044088176</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>1.0</v>
@@ -3727,10 +3751,10 @@
         <v>0.0</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
@@ -3738,13 +3762,13 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.7230845691382766</v>
+        <v>0.8303286573146291</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>0.0</v>
@@ -3753,10 +3777,10 @@
         <v>1.0</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
@@ -3764,25 +3788,25 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.8187286573146292</v>
+        <v>0.746698997995992</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="116">
@@ -3790,13 +3814,13 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.8427462925851703</v>
+        <v>0.678671743486974</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>1.0</v>
@@ -3805,7 +3829,7 @@
         <v>0.0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>1.0</v>
@@ -3816,13 +3840,13 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.653466132264529</v>
+        <v>0.7967166332665331</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>1.0</v>
@@ -3831,10 +3855,10 @@
         <v>0.0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="118">
@@ -3842,13 +3866,13 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.7683070140280561</v>
+        <v>0.8319310621242485</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>1.0</v>
@@ -3857,10 +3881,10 @@
         <v>0.0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
@@ -3868,13 +3892,13 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.5686236472945891</v>
+        <v>0.679071743486974</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>1.0</v>
@@ -3883,10 +3907,10 @@
         <v>0.0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
@@ -3894,13 +3918,13 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.8075286573146293</v>
+        <v>0.8255310621242484</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>1.0</v>
@@ -3909,10 +3933,10 @@
         <v>0.0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
@@ -3920,13 +3944,13 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0.7438941883767536</v>
+        <v>0.8167254509018035</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1.0</v>
@@ -3935,7 +3959,7 @@
         <v>0.0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>2.0</v>
@@ -3946,13 +3970,13 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.8239270541082163</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1.0</v>
@@ -3961,7 +3985,7 @@
         <v>0.0</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>1.0</v>
@@ -3972,13 +3996,13 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.7458973947895793</v>
+        <v>0.82152625250501</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1.0</v>
@@ -3987,7 +4011,7 @@
         <v>0.0</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>1.0</v>
@@ -3998,13 +4022,13 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.7651046092184368</v>
+        <v>0.8119158316633266</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1.0</v>
@@ -4013,10 +4037,10 @@
         <v>0.0</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125">
@@ -4024,13 +4048,13 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0.7454973947895791</v>
+        <v>0.8195254509018035</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1.0</v>
@@ -4039,7 +4063,7 @@
         <v>0.0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>1.0</v>
@@ -4050,25 +4074,25 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.735898997995992</v>
+        <v>0.794322244488978</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="127">
@@ -4076,13 +4100,13 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8275238476953908</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1.0</v>
@@ -4091,7 +4115,7 @@
         <v>0.0</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>1.0</v>
@@ -4102,13 +4126,13 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0.8079278557114229</v>
+        <v>0.82312625250501</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1.0</v>
@@ -4117,7 +4141,7 @@
         <v>0.0</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>1.0</v>
@@ -4128,13 +4152,13 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.6498581162324649</v>
+        <v>0.7903110220440882</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1.0</v>
@@ -4143,10 +4167,10 @@
         <v>0.0</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
@@ -4154,25 +4178,25 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.8127278557114227</v>
+        <v>0.8391310621242486</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
@@ -4180,13 +4204,13 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.8403374749498997</v>
+        <v>0.7462901803607214</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1.0</v>
@@ -4195,10 +4219,10 @@
         <v>0.0</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="132">
@@ -4206,25 +4230,25 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
@@ -4232,25 +4256,25 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.8203318637274549</v>
+        <v>0.7242861723446893</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
@@ -4258,25 +4282,25 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>0.8231326653306613</v>
+        <v>0.8407366733466933</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="135">
@@ -4284,13 +4308,13 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>0.8427382765531062</v>
+        <v>0.747098997995992</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1.0</v>
@@ -4299,10 +4323,10 @@
         <v>0.0</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="136">
@@ -4310,25 +4334,25 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0.7863198396793587</v>
+        <v>0.6250501002004007</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="137">
@@ -4336,13 +4360,13 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>0.8183302605210422</v>
+        <v>0.8403398797595191</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1.0</v>
@@ -4351,7 +4375,7 @@
         <v>0.0</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>2.0</v>
@@ -4362,13 +4386,13 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0.8527422845691384</v>
+        <v>0.7919134268537075</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1.0</v>
@@ -4377,10 +4401,10 @@
         <v>0.0</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
@@ -4388,13 +4412,13 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0.853543887775551</v>
+        <v>0.7434949899799599</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1.0</v>
@@ -4403,7 +4427,7 @@
         <v>0.0</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>1.0</v>
@@ -4414,13 +4438,13 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0.8511302605210421</v>
+        <v>0.8195222444889779</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1.0</v>
@@ -4429,7 +4453,7 @@
         <v>0.0</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>1.0</v>
@@ -4440,13 +4464,13 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0.8299294589178358</v>
+        <v>0.8099238476953909</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1.0</v>
@@ -4455,10 +4479,10 @@
         <v>0.0</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
@@ -4466,13 +4490,13 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0.2601042084168337</v>
+        <v>0.7434949899799599</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1.0</v>
@@ -4481,10 +4505,10 @@
         <v>0.0</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
@@ -4492,13 +4516,13 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8287254509018036</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1.0</v>
@@ -4507,10 +4531,10 @@
         <v>0.0</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
@@ -4518,13 +4542,13 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.7659030060120241</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>0.0</v>
@@ -4533,10 +4557,10 @@
         <v>1.0</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="145">
@@ -4544,13 +4568,13 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.838734268537074</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>0.0</v>
@@ -4559,7 +4583,7 @@
         <v>1.0</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>1.0</v>
@@ -4570,13 +4594,13 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>0.7939254509018037</v>
+        <v>0.8403414829659319</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1.0</v>
@@ -4585,10 +4609,10 @@
         <v>0.0</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
@@ -4596,13 +4620,13 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0.8435382765531061</v>
+        <v>0.8235294589178356</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1.0</v>
@@ -4611,7 +4635,7 @@
         <v>0.0</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>1.0</v>
@@ -4622,13 +4646,13 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>0.8335374749498998</v>
+        <v>0.6986701402805611</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1.0</v>
@@ -4637,10 +4661,10 @@
         <v>0.0</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="149">
@@ -4648,13 +4672,13 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.8007174348697396</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1.0</v>
@@ -4663,10 +4687,10 @@
         <v>0.0</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="150">
@@ -4674,13 +4698,13 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>0.8179366733466935</v>
+        <v>0.8371358717434869</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1.0</v>
@@ -4689,10 +4713,10 @@
         <v>0.0</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="151">
@@ -4700,13 +4724,13 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>0.8111246492985973</v>
+        <v>0.811116633266533</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1.0</v>
@@ -4715,10 +4739,10 @@
         <v>0.0</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
@@ -4726,13 +4750,13 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0.8451430861723447</v>
+        <v>0.8139254509018036</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1.0</v>
@@ -4741,10 +4765,10 @@
         <v>0.0</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="153">
@@ -4752,13 +4776,13 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0.8243254509018035</v>
+        <v>0.6930693386773547</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1.0</v>
@@ -4767,10 +4791,10 @@
         <v>0.0</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="154">
@@ -4778,25 +4802,25 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>0.8087238476953909</v>
+        <v>0.8283294589178356</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="155">
@@ -4804,13 +4828,13 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>0.829134268537074</v>
+        <v>0.8335326653306613</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1.0</v>
@@ -4819,7 +4843,7 @@
         <v>0.0</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>1.0</v>
@@ -4830,25 +4854,25 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>0.6950725450901803</v>
+        <v>0.7903110220440882</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="157">
@@ -4856,22 +4880,22 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0.8347350701402805</v>
+        <v>0.7903110220440882</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>2.0</v>
@@ -4882,13 +4906,13 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>0.80232625250501</v>
+        <v>0.7538989979959919</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1.0</v>
@@ -4897,10 +4921,10 @@
         <v>0.0</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="159">
@@ -4908,22 +4932,22 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>0.7587110220440881</v>
+        <v>0.7418965931863728</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>2.0</v>
@@ -4934,13 +4958,13 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>0.8507334669338678</v>
+        <v>0.785508617234469</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1.0</v>
@@ -4949,10 +4973,10 @@
         <v>0.0</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
@@ -4960,13 +4984,13 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>0.8295390781563127</v>
+        <v>0.8199254509018037</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1.0</v>
@@ -4975,7 +4999,7 @@
         <v>0.0</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>1.0</v>
@@ -4986,13 +5010,13 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>0.8423366733466935</v>
+        <v>0.8139246492985972</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1.0</v>
@@ -5001,7 +5025,7 @@
         <v>0.0</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>1.0</v>
@@ -5012,13 +5036,13 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0.8439414829659319</v>
+        <v>0.8195230460921843</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1.0</v>
@@ -5027,10 +5051,10 @@
         <v>0.0</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
@@ -5038,13 +5062,13 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>0.8499462925851702</v>
+        <v>0.8435430861723446</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1.0</v>
@@ -5053,7 +5077,7 @@
         <v>0.0</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>1.0</v>
@@ -5064,25 +5088,25 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0.8579390781563128</v>
+        <v>0.8207254509018036</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="166">
@@ -5090,13 +5114,13 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>0.7398957915831663</v>
+        <v>0.7707070140280561</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>1.0</v>
@@ -5105,10 +5129,10 @@
         <v>0.0</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="167">
@@ -5116,13 +5140,13 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>0.7386933867735471</v>
+        <v>0.799912625250501</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>1.0</v>
@@ -5131,7 +5155,7 @@
         <v>0.0</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>2.0</v>
@@ -5142,13 +5166,13 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>0.8343414829659318</v>
+        <v>0.7714997995991986</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1.0</v>
@@ -5157,10 +5181,10 @@
         <v>0.0</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="169">
@@ -5168,22 +5192,22 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>0.7759046092184368</v>
+        <v>0.8035182364729458</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>2.0</v>
@@ -5194,13 +5218,13 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>0.8535414829659318</v>
+        <v>0.8187270541082163</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1.0</v>
@@ -5209,7 +5233,7 @@
         <v>0.0</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>1.0</v>
@@ -5220,13 +5244,13 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0.8179294589178356</v>
+        <v>0.8163182364729458</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1.0</v>
@@ -5235,10 +5259,10 @@
         <v>0.0</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="172">
@@ -5246,13 +5270,13 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>0.8535422845691383</v>
+        <v>0.7951182364729459</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1.0</v>
@@ -5261,10 +5285,114 @@
         <v>0.0</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>0.6358557114228457</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>0.8063262525050101</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>0.7815142284569139</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0.8291294589178356</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
